--- a/Testing/Wire Speed Test/Wire Speed Test Results.xlsx
+++ b/Testing/Wire Speed Test/Wire Speed Test Results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -280,11 +280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137462648"/>
-        <c:axId val="2132729432"/>
+        <c:axId val="2106842488"/>
+        <c:axId val="2106845528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137462648"/>
+        <c:axId val="2106842488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -295,12 +295,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132729432"/>
+        <c:crossAx val="2106845528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132729432"/>
+        <c:axId val="2106845528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137462648"/>
+        <c:crossAx val="2106842488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -836,7 +836,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
